--- a/data/Santa María.xlsx
+++ b/data/Santa María.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154436300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155172683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PROVENIENTES DEL PROCESO DE LA DESHIDRATACIÓN DE FRUTOS.</t>
+          <t>Actualización Sistema de Tratamiento de Residuos Líquidos Industriales de Planta Santa María</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
+          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/08/2019</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143720883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154436300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PROVENIENTES DEL PROCESO DE LA DESHIDRATACIÓN DE FRUTOS.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>22/08/2019</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143720883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diseño Plan de Cierre Vertedero Municipal Comuna de Santa Maria</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MUNICIPALIDAD DE SANTA MARIA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>895</v>
+        <v>42</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132658626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Diseño Plan de Cierre Vertedero Municipal Comuna de Santa Maria</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>MUNICIPALIDAD DE SANTA MARIA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>37</v>
+        <v>895</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132658626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Regularización Sistema de tratamiento de RILES - Vinícola Santa Rosa Ltda.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vinícola Santa Rosa Ltda.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>26/04/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Jahuel</t>
+          <t>Regularización Sistema de tratamiento de RILES - Vinícola Santa Rosa Ltda.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Chester Solar I SpA</t>
+          <t>Vinícola Santa Rosa Ltda.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>16200</v>
+        <v>200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/03/2016</t>
+          <t>26/04/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131223268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Deshidratadora de Frutas Agromar Ltda.</t>
+          <t>Planta Fotovoltaica Jahuel</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Empresa Deshidratadora Agromar Ltda.</t>
+          <t>Chester Solar I SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3000</v>
+        <v>16200</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>23/03/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129570321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131223268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129520388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129570321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN SANEAMIENTO SANTA FILOMENA - LA HIGUERA DE SANTA MARÍA</t>
+          <t>Planta Deshidratadora de Frutas Agromar Ltda.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MUNICIPALIDAD DE SANTA MARIA</t>
+          <t>Empresa Deshidratadora Agromar Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1786</v>
+        <v>3000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>28/05/2012</t>
+          <t>11/06/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129520388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS CONCENTRADO DE JUGO DE UVAS. "JUCOSOL S.A. "</t>
+          <t>CONSTRUCCIÓN SANEAMIENTO SANTA FILOMENA - LA HIGUERA DE SANTA MARÍA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
+          <t>MUNICIPALIDAD DE SANTA MARIA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>1786</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/02/2012</t>
+          <t>28/05/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6527097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS CONCENTRADO DE JUGO DE UVAS. "JUCOSOL S.A. "</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>10/02/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6527097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>563</v>
+        <v>100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>563</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación DIA Sistema de Manejo Integral de Residuos Industriales Líquidos Empresa Fruservices AR. Ltda. (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fruservices AR. Ltda.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3968419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación DIA Sistema de Manejo Integral y disposición de RILes Empresa Fruservices AR. Ltda. (e-seia)</t>
+          <t>Modificación DIA Sistema de Manejo Integral de Residuos Industriales Líquidos Empresa Fruservices AR. Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRUSERVICES A.R. LTDA.</t>
+          <t>Fruservices AR. Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/07/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3968419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modiicación DIA "Sistema de manejo Integral y Disposición de RILes" (e-seia)</t>
+          <t>Modificación DIA Sistema de Manejo Integral y disposición de RILes Empresa Fruservices AR. Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>08/07/2009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3875099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Modiicación DIA "Sistema de manejo Integral y Disposición de RILes" (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>FRUSERVICES A.R. LTDA.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3875099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>429</v>
+        <v>300</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial de Jucosol S.A., V Región (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Exportadora de Mostos y Vinos Jucosol S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/06/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12/05/2006</t>
+          <t>06/06/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1440818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>28/03/2006</t>
+          <t>12/05/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1364447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1440818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial de Jucosol S.A., V Región (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Exportadora de Mostos y Vinos Jucosol S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4000</v>
+        <v>43</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>28/03/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1364447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial de Jucosol S.A., V Región (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jaime Figueroa Tomic</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>43</v>
+        <v>4000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sistema de manejo integral y disposición de residuos industriales liquidos (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial de Jucosol S.A., V Región (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>RAMÓN ERNESTO RETAMALES GUERRA</t>
+          <t>Jaime Figueroa Tomic</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>27/02/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1235744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>sistema de manejo integral y disposición de residuos industriales liquidos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>RAMÓN ERNESTO RETAMALES GUERRA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1235744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Remodelación Hotel Termas de Jahuel (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Anónima Jahuel de Aguas Minerales y Balneario</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/08/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=995978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sistema de Manejo Integral y Disposición de Residuos Industriales Líquidos (e-seia)</t>
+          <t>Remodelación Hotel Termas de Jahuel (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FRUSERVICES A.R. LTDA.</t>
+          <t>Sociedad Anónima Jahuel de Aguas Minerales y Balneario</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>25/11/2004</t>
+          <t>30/08/2005</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=995978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Sistema de Manejo Integral y Disposición de Residuos Industriales Líquidos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>FRUSERVICES A.R. LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>25/11/2004</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRUSERVICES A.R. LTDA. (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FRUSERVICES A.R. LTDA.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=314538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Comité Habitacional Las Cadenas Santa María</t>
+          <t>FRUSERVICES A.R. LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Comité Habitacional Las Cadenas</t>
+          <t>FRUSERVICES A.R. LTDA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>26/07/2002</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=314538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Urbanización y Sistema de Tratamiento de Aguas Servidas Comité de Vivienda Las Rosas</t>
+          <t>Sistema de Alcantarillado Comité Habitacional Las Cadenas Santa María</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Comité Vivienda Las Rosas</t>
+          <t>Comité Habitacional Las Cadenas</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>26/07/2002</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,43 +2824,91 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Urbanización y Sistema de Tratamiento de Aguas Servidas Comité de Vivienda Las Rosas</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Comité Vivienda Las Rosas</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>410</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>11/04/2002</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5321&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Santa María</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>Interregional</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>ECOSUR S.A.</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F53" t="n">
         <v>200</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>25/09/2001</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Santa María</t>
         </is>

--- a/data/Santa María.xlsx
+++ b/data/Santa María.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154547126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155172683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>18/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155172683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154547126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Santa María.xlsx
+++ b/data/Santa María.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Santa María.xlsx
+++ b/data/Santa María.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>29/12/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">

--- a/data/Santa María.xlsx
+++ b/data/Santa María.xlsx
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Exportadora de Mostos y Vinos Jucosol S.A.</t>
+          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Exportadora de Mostos y Vinos Jucosol S.A.</t>
+          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Exportadora de Mostos y Vinos Jucosol S.A.</t>
+          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">

--- a/data/Santa María.xlsx
+++ b/data/Santa María.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Actualización Sistema de Tratamiento de Residuos Líquidos Industriales de Planta Santa María</t>
+          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/02/2022</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155172683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29/12/2021</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154547126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155172683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>29/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154436300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154547126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PROVENIENTES DEL PROCESO DE LA DESHIDRATACIÓN DE FRUTOS.</t>
+          <t>Actualización Sistema de Tratamiento de Residuos Líquidos Industriales de Planta Santa María</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
+          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/08/2019</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143720883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154436300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PROVENIENTES DEL PROCESO DE LA DESHIDRATACIÓN DE FRUTOS.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>22/08/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143720883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Diseño Plan de Cierre Vertedero Municipal Comuna de Santa Maria</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MUNICIPALIDAD DE SANTA MARIA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>895</v>
+        <v>42</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132658626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Diseño Plan de Cierre Vertedero Municipal Comuna de Santa Maria</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>MUNICIPALIDAD DE SANTA MARIA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>895</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132658626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Regularización Sistema de tratamiento de RILES - Vinícola Santa Rosa Ltda.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vinícola Santa Rosa Ltda.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>26/04/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Jahuel</t>
+          <t>Regularización Sistema de tratamiento de RILES - Vinícola Santa Rosa Ltda.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chester Solar I SpA</t>
+          <t>Vinícola Santa Rosa Ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>16200</v>
+        <v>200</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/03/2016</t>
+          <t>26/04/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131223268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Planta Deshidratadora de Frutas Agromar Ltda.</t>
+          <t>Planta Fotovoltaica Jahuel</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Empresa Deshidratadora Agromar Ltda.</t>
+          <t>Chester Solar I SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3000</v>
+        <v>16200</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>23/03/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129570321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131223268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129520388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129570321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN SANEAMIENTO SANTA FILOMENA - LA HIGUERA DE SANTA MARÍA</t>
+          <t>Planta Deshidratadora de Frutas Agromar Ltda.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MUNICIPALIDAD DE SANTA MARIA</t>
+          <t>Empresa Deshidratadora Agromar Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1786</v>
+        <v>3000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>28/05/2012</t>
+          <t>11/06/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129520388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS CONCENTRADO DE JUGO DE UVAS. "JUCOSOL S.A. "</t>
+          <t>CONSTRUCCIÓN SANEAMIENTO SANTA FILOMENA - LA HIGUERA DE SANTA MARÍA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
+          <t>MUNICIPALIDAD DE SANTA MARIA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>29</v>
+        <v>1786</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/02/2012</t>
+          <t>28/05/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6527097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS CONCENTRADO DE JUGO DE UVAS. "JUCOSOL S.A. "</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>10/02/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6527097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>563</v>
+        <v>100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>300</v>
+        <v>563</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación DIA Sistema de Manejo Integral de Residuos Industriales Líquidos Empresa Fruservices AR. Ltda. (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fruservices AR. Ltda.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3968419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación DIA Sistema de Manejo Integral y disposición de RILes Empresa Fruservices AR. Ltda. (e-seia)</t>
+          <t>Modificación DIA Sistema de Manejo Integral de Residuos Industriales Líquidos Empresa Fruservices AR. Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FRUSERVICES A.R. LTDA.</t>
+          <t>Fruservices AR. Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/07/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3968419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modiicación DIA "Sistema de manejo Integral y Disposición de RILes" (e-seia)</t>
+          <t>Modificación DIA Sistema de Manejo Integral y disposición de RILes Empresa Fruservices AR. Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>08/07/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3875099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Modiicación DIA "Sistema de manejo Integral y Disposición de RILes" (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>FRUSERVICES A.R. LTDA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3875099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>429</v>
+        <v>300</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial de Jucosol S.A., V Región (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/06/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12/05/2006</t>
+          <t>06/06/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1440818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>28/03/2006</t>
+          <t>12/05/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1364447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1440818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial de Jucosol S.A., V Región (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4000</v>
+        <v>43</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>28/03/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1364447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial de Jucosol S.A., V Región (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jaime Figueroa Tomic</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>43</v>
+        <v>4000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>27/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sistema de manejo integral y disposición de residuos industriales liquidos (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial de Jucosol S.A., V Región (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>RAMÓN ERNESTO RETAMALES GUERRA</t>
+          <t>Jaime Figueroa Tomic</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>27/02/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1235744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>sistema de manejo integral y disposición de residuos industriales liquidos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>RAMÓN ERNESTO RETAMALES GUERRA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1235744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Remodelación Hotel Termas de Jahuel (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Anónima Jahuel de Aguas Minerales y Balneario</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/08/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=995978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sistema de Manejo Integral y Disposición de Residuos Industriales Líquidos (e-seia)</t>
+          <t>Remodelación Hotel Termas de Jahuel (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FRUSERVICES A.R. LTDA.</t>
+          <t>Sociedad Anónima Jahuel de Aguas Minerales y Balneario</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>25/11/2004</t>
+          <t>30/08/2005</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=995978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Sistema de Manejo Integral y Disposición de Residuos Industriales Líquidos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>FRUSERVICES A.R. LTDA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>25/11/2004</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRUSERVICES A.R. LTDA. (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FRUSERVICES A.R. LTDA.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=314538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Comité Habitacional Las Cadenas Santa María</t>
+          <t>FRUSERVICES A.R. LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Comité Habitacional Las Cadenas</t>
+          <t>FRUSERVICES A.R. LTDA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>26/07/2002</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=314538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Urbanización y Sistema de Tratamiento de Aguas Servidas Comité de Vivienda Las Rosas</t>
+          <t>Sistema de Alcantarillado Comité Habitacional Las Cadenas Santa María</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Comité Vivienda Las Rosas</t>
+          <t>Comité Habitacional Las Cadenas</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>26/07/2002</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,43 +2872,91 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>Urbanización y Sistema de Tratamiento de Aguas Servidas Comité de Vivienda Las Rosas</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Comité Vivienda Las Rosas</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>410</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>11/04/2002</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5321&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Santa María</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>Interregional</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>ECOSUR S.A.</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="F54" t="n">
         <v>200</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>25/09/2001</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Santa María</t>
         </is>

--- a/data/Santa María.xlsx
+++ b/data/Santa María.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Santa María.xlsx
+++ b/data/Santa María.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
